--- a/data/trans_dic/P16A20_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Estudios-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -53,34 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -513,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,21 +501,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -552,85 +515,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -642,15 +551,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -664,39 +564,12 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>0.0215658123157652</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.09830644801581817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.0215658123157652</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.09830644801581817</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
         <v>0.06659558623430779</v>
       </c>
     </row>
@@ -707,22 +580,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.01272436251242468</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.08310020321991803</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.05610454637737834</v>
       </c>
     </row>
@@ -733,22 +597,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.03487185462990565</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.1150645797780625</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.07741522662648322</v>
       </c>
     </row>
@@ -764,39 +619,12 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.01145202869347425</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.08104251595931251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.01145202869347425</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.08104251595931251</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
         <v>0.04577100759678088</v>
       </c>
     </row>
@@ -807,22 +635,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.007524679026202736</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.07130934091484044</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.04040931511135411</v>
       </c>
     </row>
@@ -833,22 +652,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.01877790263014312</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.09248104396005055</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.05251507647531919</v>
       </c>
     </row>
@@ -864,39 +674,12 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.01321541824201816</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.0724039265212689</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.01321541824201816</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.0724039265212689</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
         <v>0.04327160535985729</v>
       </c>
     </row>
@@ -907,22 +690,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.00680954086880287</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.05737882006630821</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.03515450514641953</v>
       </c>
     </row>
@@ -933,22 +707,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.02408826410390057</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.08877956132872925</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.05328054638710562</v>
       </c>
     </row>
@@ -964,39 +729,12 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>0.01346809506486259</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>0.08314109843805054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.01346809506486259</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.08314109843805054</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
         <v>0.04928993605737685</v>
       </c>
     </row>
@@ -1007,22 +745,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.009908940901700499</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.07548076084950396</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.0447965326851336</v>
       </c>
     </row>
@@ -1033,22 +762,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.0184043190092478</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.09083306786608679</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.05343184456409503</v>
       </c>
     </row>
@@ -1060,14 +780,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1080,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1096,21 +813,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1119,85 +827,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1209,15 +863,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1231,39 +876,12 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>141</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
         <v>157</v>
       </c>
     </row>
@@ -1275,39 +893,12 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
+        <v>12455</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0</v>
+        <v>80623</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>12455</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>80623</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>93078</v>
       </c>
     </row>
@@ -1318,22 +909,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr"/>
-      <c r="F6" s="6" t="n">
+      <c r="C6" s="6" t="n">
         <v>7349</v>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>68152</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>78415</v>
       </c>
     </row>
@@ -1344,22 +926,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>20140</v>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="6" t="inlineStr"/>
-      <c r="I7" s="6" t="inlineStr"/>
-      <c r="J7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>94366</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr"/>
-      <c r="N7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>108200</v>
       </c>
     </row>
@@ -1375,39 +948,12 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>264</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
         <v>288</v>
       </c>
     </row>
@@ -1419,39 +965,12 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0</v>
+        <v>25545</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>175889</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>25545</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>175889</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>201433</v>
       </c>
     </row>
@@ -1462,22 +981,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr"/>
-      <c r="F10" s="6" t="n">
+      <c r="C10" s="6" t="n">
         <v>16784</v>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
-      <c r="J10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>154765</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
-      <c r="N10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>177837</v>
       </c>
     </row>
@@ -1488,22 +998,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
+      <c r="C11" s="6" t="n">
         <v>41885</v>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>200714</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr"/>
-      <c r="N11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>231113</v>
       </c>
     </row>
@@ -1519,39 +1020,12 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="n">
         <v>92</v>
       </c>
     </row>
@@ -1563,39 +1037,12 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>9404</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>53156</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>9404</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>53156</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
         <v>62559</v>
       </c>
     </row>
@@ -1606,22 +1053,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>4846</v>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>42125</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>50824</v>
       </c>
     </row>
@@ -1632,22 +1070,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>17141</v>
       </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>65178</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="inlineStr"/>
-      <c r="N15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>77030</v>
       </c>
     </row>
@@ -1663,39 +1092,12 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>486</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="n">
         <v>537</v>
       </c>
     </row>
@@ -1707,39 +1109,12 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>47404</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0</v>
+        <v>309667</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>47404</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>309667</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="n">
         <v>357071</v>
       </c>
     </row>
@@ -1750,22 +1125,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="F18" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>34876</v>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="6" t="n">
+      <c r="D18" s="6" t="n">
         <v>281135</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>324519</v>
       </c>
     </row>
@@ -1776,22 +1142,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr"/>
-      <c r="F19" s="6" t="n">
+      <c r="C19" s="6" t="n">
         <v>64778</v>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr"/>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="6" t="n">
+      <c r="D19" s="6" t="n">
         <v>338317</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr"/>
-      <c r="M19" s="6" t="inlineStr"/>
-      <c r="N19" s="6" t="n">
+      <c r="E19" s="6" t="n">
         <v>387076</v>
       </c>
     </row>
@@ -1803,14 +1160,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
